--- a/ExpertHelper/Workbook.xlsx
+++ b/ExpertHelper/Workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="33860" windowHeight="18620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33860" windowHeight="18620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="Sublevel">'lists-to-hide'!$A$17:$A$19</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -599,7 +600,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="295">
   <si>
     <t>Design</t>
   </si>
@@ -673,7 +674,7 @@
     <t>Beginner</t>
   </si>
   <si>
-    <t>Self Estimate, 
+    <t>Self Estimate,
 Score</t>
   </si>
   <si>
@@ -1490,6 +1491,18 @@
   </si>
   <si>
     <t>Intermedaite</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -3216,11 +3229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="505332232"/>
-        <c:axId val="505335544"/>
+        <c:axId val="538372088"/>
+        <c:axId val="533613448"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="505332232"/>
+        <c:axId val="538372088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,7 +3258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505335544"/>
+        <c:crossAx val="533613448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3253,7 +3266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505335544"/>
+        <c:axId val="533613448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -3266,7 +3279,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505332232"/>
+        <c:crossAx val="538372088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5458,7 +5471,7 @@
   </sheetPr>
   <dimension ref="A1:AK124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
